--- a/biology/Botanique/Malouetia_tamaquarina/Malouetia_tamaquarina.xlsx
+++ b/biology/Botanique/Malouetia_tamaquarina/Malouetia_tamaquarina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malouetia tamaquarina est une espèce d'arbuste néotropical de la famille des Apocynaceae (famille des pervenches). Il s'agit de l'espèce type du genre Malouetia A.DC..
-En Guyane, elle est connue sous les noms de Bois-cuillère (Créole), Couillé-epcou (Wayana), Yukigl (Palikur), Paluke (Wayãpi), Bala tiki (Boni), Boueni-mango, Liba-mango (Nenge tongo)[2].
-Au Suriname, elle est connue comme Oonsé balli (Arawak), Jaramiloerang (Karib)[3].
-Au Guyana, on l'appelle Kirikahii (Créole), Eneko ikïkaï (Wittoto)[2].
-Au Venezuela, elle porte les noms de Palo de boya, Boya rebalsera, Guachimaca (Espagnol), et Jimajeru (Guarao)[4].
+En Guyane, elle est connue sous les noms de Bois-cuillère (Créole), Couillé-epcou (Wayana), Yukigl (Palikur), Paluke (Wayãpi), Bala tiki (Boni), Boueni-mango, Liba-mango (Nenge tongo).
+Au Suriname, elle est connue comme Oonsé balli (Arawak), Jaramiloerang (Karib).
+Au Guyana, on l'appelle Kirikahii (Créole), Eneko ikïkaï (Wittoto).
+Au Venezuela, elle porte les noms de Palo de boya, Boya rebalsera, Guachimaca (Espagnol), et Jimajeru (Guarao).
 Au Brésil, elle est appelée Molongó (Portugais). 
-Ailleurs, elle porte aussi le nom de Chicle (Espagnol)[5].
+Ailleurs, elle porte aussi le nom de Chicle (Espagnol).
 </t>
         </is>
       </c>
@@ -517,7 +529,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Malouetia rend hommage à Pierre-Victor Malouët (1740-1814), planteur de sucre de Saint-Domingue, ordonnateur de Guyane entre 1776 et 1778, et homme politique français pendant la période de la Révolution.
 L'épithète spécifique tamaquarina se réfère au nom vernaculaire amérindien Garipon.
@@ -549,13 +563,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Malouetia tamaquarina est un arbuste ou un petit arbre haut de 3–10(–20) m pour 15 cm de DHP. 
 Le tronc est grisâtre, à base droite. 
 Le latex est laiteux et abondant.
 Le rhytidome est lisse, de couleur brun clair, brun rougeâtre à noire, densément parsemée de lenticelles vertes.
-Le phloème est de couleur café à rougeâtre, et l'aubier de couleur crème[5].
+Le phloème est de couleur café à rougeâtre, et l'aubier de couleur crème.
 Le bois est jaunâtre. 
 Les feuilles simples, opposées, sont de forme oblongues à ovales-elliptiques avec l'apex courtement acuminé, et la base obtuse.
 Le limbe décoloré, mesure 5-15 x 1,5-7 cm.
@@ -571,7 +587,7 @@
 Les étamines  épipétales portent des anthères densément pubescentes à barbelées sur la face dorsale, sont longues de 5 mm, et exsertes, émergent aux 2/3 de la corolle, les pointes dressées ou recourbées. 
 L'ovaire densément hirtelleux est plus large que le disque. 
 Le fruit est méricarpe composé d'une paire de follicules déhiscents, épais, courbés, glabres, striés mais non côtelés, divergents d'environ 30°, mesurant (25)30-35 x 0,4-1 cm, et contenant de nombreuses graines. 
-Les graines sont glabres ou à pubescence clairsemée, et mesurent de (3)3,5 à 4,5 cm de long, pour environ 3-5 mm d'épaisseur[2],[3],[4],[5].
+Les graines sont glabres ou à pubescence clairsemée, et mesurent de (3)3,5 à 4,5 cm de long, pour environ 3-5 mm d'épaisseur.
 </t>
         </is>
       </c>
@@ -600,9 +616,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Malouetia tamaquarina est présente en Amazonie[5],[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Malouetia tamaquarina est présente en Amazonie, :
 dans le nord (y compris l'Amazonie du Venezuela, la Colombie, le Guyana, le Suriname, la Guyane, et le bassin supérieur du Rio Negro au nord du Brésil),
 dans l'ouest (des pentes orientales des Andes jusqu'à la partie occidentale de l'Amazonie brésilienne, y compris l'Amazonie équatorienne, péruvienne, bolivienne et sud-colombienne, et l'État d'Acre au nord-ouest du Brésil)
 et dans le centre (de la frontière ouest du Brésil au bassin du Rio Tapajós).</t>
@@ -633,7 +651,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Brésil, Malouetia tamaquarina est un arbre occasionnel des forêts à canopée basse. 
 Il affectionne aussi bien les várzea basses (forêts inondées à plus de 3 m de hauteur, avec une période d'inondation moyenne de plus de 50 jours par an),
@@ -644,11 +664,11 @@
 Avec sa hauteur moyenne de 15-20 m, elle occupe l'étage moyen dans la stratification forestière, parmi les arbres de 15-25 m.
 Son feuillage est persistant : il ne présente pas de perte de feuilles remarquable. 
 Son bois léger a une densité de 0,31-0,41 g/cm3.
-Sa croissance moyenne de DHP est de 3,1 ± 0,6 mm/an (on peut estimer l'âge d'un arbre en divisant son diamètre mesuré sur le terrain par cette valeur)[5].
-Au Venezuela, on le rencontre souvent le long des cours d'eau autour de 100 m d'altitude, dans les forêts ripicoles des basses terres, les forêts marécageuses et saisonnièrement inondées[4].
-Malouetia tamaquarina est une des principales espèces dominantes des parties basses des forêts marécageuses du bassin du Sinnamary en Guyane (26-15% de la surface terrière totale)[6]. 
-Elle fleurit dans les Guyanes, de septembre à janvier, et fructifie de janvier à mai[2]. 
-Malouetia tamaquarina est une espèce à croissance lente, potentiellement sensible à la surexploitation[7].
+Sa croissance moyenne de DHP est de 3,1 ± 0,6 mm/an (on peut estimer l'âge d'un arbre en divisant son diamètre mesuré sur le terrain par cette valeur).
+Au Venezuela, on le rencontre souvent le long des cours d'eau autour de 100 m d'altitude, dans les forêts ripicoles des basses terres, les forêts marécageuses et saisonnièrement inondées.
+Malouetia tamaquarina est une des principales espèces dominantes des parties basses des forêts marécageuses du bassin du Sinnamary en Guyane (26-15% de la surface terrière totale). 
+Elle fleurit dans les Guyanes, de septembre à janvier, et fructifie de janvier à mai. 
+Malouetia tamaquarina est une espèce à croissance lente, potentiellement sensible à la surexploitation.
 </t>
         </is>
       </c>
@@ -677,17 +697,19 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'extrait de feuilles de Malouetia tamaquarina est un des ingrédients communs dans les recettes d'Ayahuasca.
-Malouetia tamaquarina est aussi employée comme poison de pêche en Amazonie du Pérou à la Colombie[8].
+Malouetia tamaquarina est aussi employée comme poison de pêche en Amazonie du Pérou à la Colombie.
 Le latex blanc très abondant est utilisé comme adultérant du latex d'hévéa.
-Les graines très toxiques sont utilisées pour tuer des chiens [9],[10]. 
-C'est un ingrédient de certains curares qui provoquent la mort en bloquant la fonction respiratoire[2].
-Le bois blanc, tendre et léger de Malouetia tamaquarina est employé pour sculpter de petits objets artisanaux : cuillères, flotteurs pour la pêche (bouchons, bouées), tabourets, etc. Les copeaux du bois sont utilisés pour allumer le feu[4].
-Les propriétés antimicrobiennes d'extraits de Malouetia tamaquarina ont été testées : on a observé des effets sur Candida albicans[11].
-On a aussi testé ses propriétés antitumorales et anti-HIV : l'extrait de tige et de feuille a présenté une activité cytotoxique[12].
-Le latex hautement toxique, provoque des dermatites[13].
+Les graines très toxiques sont utilisées pour tuer des chiens ,. 
+C'est un ingrédient de certains curares qui provoquent la mort en bloquant la fonction respiratoire.
+Le bois blanc, tendre et léger de Malouetia tamaquarina est employé pour sculpter de petits objets artisanaux : cuillères, flotteurs pour la pêche (bouchons, bouées), tabourets, etc. Les copeaux du bois sont utilisés pour allumer le feu.
+Les propriétés antimicrobiennes d'extraits de Malouetia tamaquarina ont été testées : on a observé des effets sur Candida albicans.
+On a aussi testé ses propriétés antitumorales et anti-HIV : l'extrait de tige et de feuille a présenté une activité cytotoxique.
+Le latex hautement toxique, provoque des dermatites.
 </t>
         </is>
       </c>
@@ -716,9 +738,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malouetia tamaquarina contient des alcaloïdes (dont des alcaloïdes stéroïdiques[13]), des tanins, des acides et des phénols. La racine contient 0,71 % d'alcaloïdes exprimés sur une base sèche. L'extrait total de racine a montré une action hypotensive de type muscarinique. L'analyse n'a pas démontré d'action curative. La DL50 chez le rat a été mesurée à 7,72 g/kg[14].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malouetia tamaquarina contient des alcaloïdes (dont des alcaloïdes stéroïdiques), des tanins, des acides et des phénols. La racine contient 0,71 % d'alcaloïdes exprimés sur une base sèche. L'extrait total de racine a montré une action hypotensive de type muscarinique. L'analyse n'a pas démontré d'action curative. La DL50 chez le rat a été mesurée à 7,72 g/kg.
 </t>
         </is>
       </c>
@@ -747,9 +771,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[15] : 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « CAMERARIA (Tamaquarina) foliis ovato-oblongis, acuminatis ; floribus amplis, luteis, odoratis. (Tabula 102.)
 Frutex, trunco quatuor aut quinque-pedali, ramos plures, nodoſos, folioſos, verſus ſummitatem emittente. Folia oppoſita, ovato-oblonga, in acumen longum deſinentia, glabra, integerrima, brevi petiolata. Flores corymboſi, terminales, &amp; intrà bifurcationem ramulorum. Corolla ampla, lutea, odorem gratum ſpargit. 
 Florebat Maio. 
